--- a/downloaded_files/EECS304_Lecture-35308.xlsx
+++ b/downloaded_files/EECS304_Lecture-35308.xlsx
@@ -813,7 +813,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.4450416667</x:v>
+        <x:v>45927.4705346412</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1133,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.9797975347</x:v>
+        <x:v>45927.5946633449</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>

--- a/downloaded_files/EECS304_Lecture-35308.xlsx
+++ b/downloaded_files/EECS304_Lecture-35308.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -105,6 +105,15 @@
     <x:t>Zeina Sherif Ismail Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210238</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى ناصر عبدالوهاب الحسيني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Nasser Abdelwahab Elhosseiny</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230066</x:t>
   </x:si>
   <x:si>
@@ -150,15 +159,6 @@
     <x:t>lojain khaled ramadan mahmoud</x:t>
   </x:si>
   <x:si>
-    <x:t>1230246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عمرو محمد عزت صفوت ابو العطا</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
-  </x:si>
-  <x:si>
     <x:t>4230175</x:t>
   </x:si>
   <x:si>
@@ -184,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Mennatullah Mohammad Mahmoud Abolfotoh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مهند محمد فتحى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohaned Mohammed fathy</x:t>
   </x:si>
   <x:si>
     <x:t>1230287</x:t>
@@ -326,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -973,7 +982,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4252987268</x:v>
+        <x:v>45927.7615451389</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1005,7 +1014,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45907.4252987268</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1046,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.8230241898</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1078,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.420471412</x:v>
+        <x:v>45912.8230241898</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1110,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4306395486</x:v>
+        <x:v>45907.420471412</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1142,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.5946633449</x:v>
+        <x:v>45907.4306395486</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1261,7 +1270,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4307258449</x:v>
+        <x:v>45927.9337043171</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.5377995023</x:v>
+        <x:v>45907.4307258449</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1325,7 +1334,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4382828704</x:v>
+        <x:v>45909.5377995023</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1342,6 +1351,38 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45907.4382828704</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS304_Lecture-35308.xlsx
+++ b/downloaded_files/EECS304_Lecture-35308.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Zeina Sherif Ismail Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى طارق عوض مرعى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Tarek Awad Ali Marei</x:t>
   </x:si>
   <x:si>
     <x:t>1210238</x:t>
@@ -335,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -982,7 +991,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.7615451389</x:v>
+        <x:v>45928.3955232986</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1014,7 +1023,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4252987268</x:v>
+        <x:v>45927.7615451389</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1046,7 +1055,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45907.4252987268</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1078,7 +1087,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.8230241898</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1119,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.420471412</x:v>
+        <x:v>45912.8230241898</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1151,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4306395486</x:v>
+        <x:v>45907.420471412</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1183,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4321667477</x:v>
+        <x:v>45907.4306395486</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1215,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4200497338</x:v>
+        <x:v>45909.4321667477</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1247,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45907.4200497338</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1279,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.9337043171</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4307258449</x:v>
+        <x:v>45927.9337043171</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1343,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.5377995023</x:v>
+        <x:v>45907.4307258449</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1366,7 +1375,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4382828704</x:v>
+        <x:v>45909.5377995023</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1383,6 +1392,38 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45907.4382828704</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS304_Lecture-35308.xlsx
+++ b/downloaded_files/EECS304_Lecture-35308.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmad Hisham GamalEldin Mahmoud Fouda Mahmoud Afifi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد يحى سعد السيد نافع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Yehya Saad Nafea</x:t>
   </x:si>
   <x:si>
     <x:t>1230157</x:t>
@@ -344,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -644,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -767,7 +776,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4495123843</x:v>
+        <x:v>45934.8620416667</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -799,7 +808,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.6957830671</x:v>
+        <x:v>45907.4495123843</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -831,7 +840,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.4705346412</x:v>
+        <x:v>45909.6957830671</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -863,7 +872,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4202734144</x:v>
+        <x:v>45927.4705346412</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -895,7 +904,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.4377708333</x:v>
+        <x:v>45907.4202734144</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -927,7 +936,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45913.0130540856</x:v>
+        <x:v>45909.4377708333</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -959,7 +968,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45913.0073104514</x:v>
+        <x:v>45913.0130540856</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -991,7 +1000,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45928.3955232986</x:v>
+        <x:v>45913.0073104514</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1023,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.7615451389</x:v>
+        <x:v>45928.3955232986</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1055,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4252987268</x:v>
+        <x:v>45927.7615451389</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1087,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4197314468</x:v>
+        <x:v>45907.4252987268</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1119,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.8230241898</x:v>
+        <x:v>45907.4197314468</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1151,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.420471412</x:v>
+        <x:v>45912.8230241898</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1183,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4306395486</x:v>
+        <x:v>45907.420471412</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1215,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4321667477</x:v>
+        <x:v>45907.4306395486</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1247,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4200497338</x:v>
+        <x:v>45909.4321667477</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1279,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45907.4200497338</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1311,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.9337043171</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1343,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4307258449</x:v>
+        <x:v>45927.9337043171</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1375,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.5377995023</x:v>
+        <x:v>45907.4307258449</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1407,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4382828704</x:v>
+        <x:v>45909.5377995023</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1424,6 +1433,38 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45907.4382828704</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS304_Lecture-35308.xlsx
+++ b/downloaded_files/EECS304_Lecture-35308.xlsx
@@ -48,7 +48,7 @@
     <x:t>احمد يحى سعد السيد نافع</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Yehya Saad Nafea</x:t>
+    <x:t>Ahmed Yehya Saad Elsayed Nafea</x:t>
   </x:si>
   <x:si>
     <x:t>1230157</x:t>

--- a/downloaded_files/EECS304_Lecture-35308.xlsx
+++ b/downloaded_files/EECS304_Lecture-35308.xlsx
@@ -210,7 +210,7 @@
     <x:t>مهند محمد فتحى محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohaned Mohammed fathy</x:t>
+    <x:t xml:space="preserve"> Mohaned Mohammed fathy Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1230287</x:t>
@@ -228,7 +228,7 @@
     <x:t>يوسف كامل إسماعيل محمد كامل اسماعيل</x:t>
   </x:si>
   <x:si>
-    <x:t>Youssuf kamel ismail Mohammed</x:t>
+    <x:t>Youssef Kamel Ismail Mohamed Kamel Ismail</x:t>
   </x:si>
   <x:si>
     <x:t>1230135</x:t>
@@ -237,7 +237,7 @@
     <x:t>يوسف ناصر سيد منسي ابراهيم</x:t>
   </x:si>
   <x:si>
-    <x:t>Youssef Nasser Sayed Mansy</x:t>
+    <x:t>YOUSSEF NASSER SAYED MANSY IBRAHIM</x:t>
   </x:si>
 </x:sst>
 </file>
